--- a/Document/data(数据导入模版文件).xlsx
+++ b/Document/data(数据导入模版文件).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="9930" activeTab="3"/>
+    <workbookView windowWidth="15375" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="course" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <t>chId</t>
   </si>
   <si>
-    <t>stage</t>
+    <t>stageIds</t>
   </si>
   <si>
     <t>pressId</t>
@@ -84,7 +84,7 @@
     <t>早教</t>
   </si>
   <si>
-    <t>0-1岁</t>
+    <t>7,8</t>
   </si>
   <si>
     <t>掌世界</t>
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -728,11 +728,14 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="2" t="s">
@@ -1183,7 +1186,7 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/Document/data(数据导入模版文件).xlsx
+++ b/Document/data(数据导入模版文件).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="8730"/>
+    <workbookView windowWidth="16005" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="course" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>chId</t>
   </si>
   <si>
@@ -36,9 +39,6 @@
     <t>session</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -81,19 +81,19 @@
     <t>status</t>
   </si>
   <si>
+    <t>第一周</t>
+  </si>
+  <si>
     <t>早教</t>
   </si>
   <si>
-    <t>7,8</t>
+    <t>0-1岁</t>
   </si>
   <si>
     <t>掌世界</t>
   </si>
   <si>
     <t>上学期</t>
-  </si>
-  <si>
-    <t>第一周</t>
   </si>
   <si>
     <t>数学</t>
@@ -293,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -729,12 +729,12 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
@@ -750,10 +750,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>31</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>35</v>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>0</v>
